--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vcdstudent/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vcdstudent/Desktop/portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{205035F7-BBB1-2647-BB40-64D7CCC39929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47586494-266C-C04E-A526-1A0840E3C0C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="780" windowWidth="28040" windowHeight="17440" xr2:uid="{6CE80ABB-166C-BC4D-AC25-DCB7B63F6030}"/>
+    <workbookView xWindow="28180" yWindow="1580" windowWidth="20720" windowHeight="23160" xr2:uid="{6CE80ABB-166C-BC4D-AC25-DCB7B63F6030}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -305,10 +305,10 @@
     <t>https://codepen.io/collection/nYZaKm</t>
   </si>
   <si>
-    <t>The prompt was to created and animated Google Doodle.</t>
-  </si>
-  <si>
     <t>I first spent time researching past Google doodle's, understanding GSAP's documentation, and practicing in codepen. I then moved to putting together my codepen pens in VS code.</t>
+  </si>
+  <si>
+    <t>The prompt was to created and animated Google Doodle, using svgs and GSAP.</t>
   </si>
 </sst>
 </file>
@@ -689,9 +689,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C46B58B-98E7-A840-A58E-BE984599450F}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -972,10 +972,10 @@
         <v>85</v>
       </c>
       <c r="J6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>87</v>

--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vcdstudent/Desktop/portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47586494-266C-C04E-A526-1A0840E3C0C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDBA1A9-A473-9648-B4F0-06FD43D202EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28180" yWindow="1580" windowWidth="20720" windowHeight="23160" xr2:uid="{6CE80ABB-166C-BC4D-AC25-DCB7B63F6030}"/>
   </bookViews>
@@ -126,9 +126,6 @@
     <t>Eclectic Outlet is a card game that is fun and quick for highscool and college aged people. This game is accessible to anyone who wants to play it by being downloadable to print and the instructions are online.</t>
   </si>
   <si>
-    <t>Myself</t>
-  </si>
-  <si>
     <t>Cards and Mobile App</t>
   </si>
   <si>
@@ -290,25 +287,28 @@
     <t>Website</t>
   </si>
   <si>
-    <t>VS Code and Github</t>
-  </si>
-  <si>
     <t>https://github.com/lragudo/google-doodle</t>
   </si>
   <si>
-    <t>https://lragudo.github.io/google-doodle/</t>
-  </si>
-  <si>
     <t>https://greensock.com/docs/</t>
   </si>
   <si>
     <t>https://codepen.io/collection/nYZaKm</t>
   </si>
   <si>
-    <t>I first spent time researching past Google doodle's, understanding GSAP's documentation, and practicing in codepen. I then moved to putting together my codepen pens in VS code.</t>
-  </si>
-  <si>
     <t>The prompt was to created and animated Google Doodle, using svgs and GSAP.</t>
+  </si>
+  <si>
+    <t>https://lragudo.github.io/google-doodle/ https://codepen.io/collection/nYZaKm?grid_type=list</t>
+  </si>
+  <si>
+    <t>Codepen, VS Code, and Github</t>
+  </si>
+  <si>
+    <t>Self Initiated</t>
+  </si>
+  <si>
+    <t>I first spent time researching past Google doodle's, understanding GSAP's documentation, and practicing snd testing my prompts in codepen. I then moved to putting together my codepen pens in VS code.</t>
   </si>
 </sst>
 </file>
@@ -689,9 +689,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C46B58B-98E7-A840-A58E-BE984599450F}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -735,7 +735,7 @@
         <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>23</v>
@@ -753,25 +753,25 @@
         <v>27</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="152" customHeight="1">
@@ -782,7 +782,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>29</v>
@@ -791,31 +791,31 @@
         <v>30</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="Q2" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="178" customHeight="1">
@@ -826,47 +826,47 @@
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="O3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="Q3" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="85">
@@ -877,32 +877,32 @@
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M4" s="4"/>
       <c r="Q4" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="187">
@@ -913,39 +913,39 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="Q5" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="85">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="102">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -953,41 +953,41 @@
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q6" s="4" t="s">
+      <c r="S6" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="18">
@@ -1007,7 +1007,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M7" s="4"/>
     </row>

--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vcdstudent/Desktop/portfolio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vcdstudent/Desktop/custom-domain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDBA1A9-A473-9648-B4F0-06FD43D202EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854B167A-8727-3B46-8D95-8406CE9539EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28180" yWindow="1580" windowWidth="20720" windowHeight="23160" xr2:uid="{6CE80ABB-166C-BC4D-AC25-DCB7B63F6030}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29440" windowHeight="28800" xr2:uid="{6CE80ABB-166C-BC4D-AC25-DCB7B63F6030}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="123">
   <si>
     <t>Eclectic Outlet</t>
   </si>
@@ -48,28 +48,16 @@
     <t>Google Doodle</t>
   </si>
   <si>
-    <t>Exercise Machine</t>
-  </si>
-  <si>
     <t>Black Spokane</t>
   </si>
   <si>
-    <t>MFWI Forms</t>
-  </si>
-  <si>
     <t>Motion Reel</t>
   </si>
   <si>
-    <t>Stickers &amp; Illustration</t>
-  </si>
-  <si>
     <t>This &amp; That</t>
   </si>
   <si>
     <t>UX</t>
-  </si>
-  <si>
-    <t>Branding</t>
   </si>
   <si>
     <t>UX Print</t>
@@ -309,6 +297,112 @@
   </si>
   <si>
     <t>I first spent time researching past Google doodle's, understanding GSAP's documentation, and practicing snd testing my prompts in codepen. I then moved to putting together my codepen pens in VS code.</t>
+  </si>
+  <si>
+    <t>Sound Board</t>
+  </si>
+  <si>
+    <t>CoLab</t>
+  </si>
+  <si>
+    <t>October 2020</t>
+  </si>
+  <si>
+    <t>August 2020</t>
+  </si>
+  <si>
+    <t>September - December 2020</t>
+  </si>
+  <si>
+    <t>Print</t>
+  </si>
+  <si>
+    <t>Parade of Paws</t>
+  </si>
+  <si>
+    <t>Portraits</t>
+  </si>
+  <si>
+    <t>Photography</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>Photography Projects</t>
+  </si>
+  <si>
+    <t>Wild Ink Designs</t>
+  </si>
+  <si>
+    <t>November 2018 - Present</t>
+  </si>
+  <si>
+    <t>Posters</t>
+  </si>
+  <si>
+    <t>October - December 2018</t>
+  </si>
+  <si>
+    <t>Poetry</t>
+  </si>
+  <si>
+    <t>Whenever I get to it since 2017</t>
+  </si>
+  <si>
+    <t>A searchable list of black owned businesses in Spokane, WA</t>
+  </si>
+  <si>
+    <t>Create a visual identity and website for The EWU DESN CoLab. Create and tell CoLab's story.
+Educate EWU students/faculty/staff, industry, and community partners about the value of collaboration, community engagement, and career-connected learning. Define and promote their first floor space called CoLab so it will be an inclusive, meaningful, vibrant, and effective place for students, faculty, staff, and partners to work and hold events.</t>
+  </si>
+  <si>
+    <t>A visual identity and website for The EWU DESN CoLab.</t>
+  </si>
+  <si>
+    <t>The website tells the CoLab's story and educate students, faculty, industry, and community partners about the value of collaboration, community engagement, and career-connected learning.</t>
+  </si>
+  <si>
+    <t>EWU Design Faculty</t>
+  </si>
+  <si>
+    <t>Milanote, Figma, Codepen, VS Code, and Github</t>
+  </si>
+  <si>
+    <t>A website to sell my sticker designs.</t>
+  </si>
+  <si>
+    <t>Brand and design my own business for selling my stickers online</t>
+  </si>
+  <si>
+    <t>Ecommerce website &amp; Brand design</t>
+  </si>
+  <si>
+    <t>Figma &amp; squarespace</t>
+  </si>
+  <si>
+    <t>September - December 2019</t>
+  </si>
+  <si>
+    <t>Packaging design for a Tabletop Role Playing subscription box.</t>
+  </si>
+  <si>
+    <t>October 16 - 18, 2020</t>
+  </si>
+  <si>
+    <t>AAF Create Event</t>
+  </si>
+  <si>
+    <t>Spokane Human Society</t>
+  </si>
+  <si>
+    <t>This was a 24hr event put on by the American Advertising Federation in Spokane. I designed collateral for the Spokane Humane Society's event, Parade of Paws in a team of 4. Although my team's design was not chosen, the day after the event I redesigned some of the collateral after receiveing feedback from local professionals at the event.</t>
+  </si>
+  <si>
+    <t>Portraits of my friends.</t>
+  </si>
+  <si>
+    <t>On occasion I will take my friends out on photoshoots.</t>
   </si>
 </sst>
 </file>
@@ -357,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -373,11 +467,86 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -388,6 +557,37 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9199302C-DF3E-CD47-9D13-08D8EDEAE97F}" name="Table1" displayName="Table1" ref="A1:S18" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:S18" xr:uid="{357C46CF-2AE5-1548-9E6B-6CEDA4298C69}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S9">
+    <sortCondition ref="B1:B13"/>
+  </sortState>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{2F9DBC93-9D05-3A4D-9E92-CECC17E8DA7B}" name="Title" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{1F5B1CC8-EC77-9F49-A805-B6C8BEE87413}" name="Design Type" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{B9F5F8DA-45A5-5D43-BF08-DB9EF9501D1B}" name="Date" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{915F508C-58B3-D940-9DA5-A66D68ACD072}" name="Tagline" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{FAAFAF5E-1FB7-9F4A-BE3C-A62D0D813FD1}" name="Description" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{79182695-FC1B-4D49-A112-B96DA65F879D}" name="Client" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{7969E9CA-4C88-1D47-9D09-CCA35C34FBA5}" name="Platforms &amp; Deliverables" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{9725743C-591A-DA44-8E5E-50ABD44E8A74}" name="UX Methods" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{66E70B2E-C765-8B43-A080-94F1E04FA46E}" name="Tools" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{B001EE2C-69B4-9547-9110-87E19EA7BC0D}" name="Problem" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{6309B0DA-404F-484F-A939-32DF07FEFB4C}" name="Research" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{EC3DE405-422F-B343-8AAF-55A409446786}" name="Other" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{2310DA80-ED6D-1B42-B2A1-00493E40A425}" name="Iteration 1" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{987D8CD3-2073-C743-BACC-B83788FBDE77}" name="Iteration 2"/>
+    <tableColumn id="15" xr3:uid="{23279CB0-DB35-2F4A-933D-7D50E044D8EB}" name="Iterations 3"/>
+    <tableColumn id="16" xr3:uid="{8389C9B1-1C4A-5B48-8AA9-7C0CA6E9300F}" name="Iterations 4"/>
+    <tableColumn id="17" xr3:uid="{EDE2BA0C-2A6C-C14A-A127-F540561F24E0}" name="Link 1" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{4CCEF60A-9B98-3740-A008-B15725121DF9}" name="Link 2" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{ADE362FF-C0BF-DE4D-87E7-87B7BBA8611C}" name="Link 3" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -687,11 +887,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C46B58B-98E7-A840-A58E-BE984599450F}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -702,7 +902,7 @@
     <col min="4" max="4" width="22.83203125" customWidth="1"/>
     <col min="5" max="5" width="40.5" customWidth="1"/>
     <col min="6" max="6" width="21.83203125" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" customWidth="1"/>
+    <col min="7" max="7" width="24.1640625" customWidth="1"/>
     <col min="8" max="8" width="19.83203125" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" customWidth="1"/>
     <col min="10" max="10" width="40.1640625" customWidth="1"/>
@@ -717,61 +917,61 @@
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="17">
       <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="Q1" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="152" customHeight="1">
@@ -779,43 +979,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>67</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="Q2" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="178" customHeight="1">
@@ -823,50 +1023,50 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="P3" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="85">
@@ -874,35 +1074,35 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M4" s="4"/>
       <c r="Q4" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="187">
@@ -910,39 +1110,39 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="102">
@@ -950,54 +1150,56 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>80</v>
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="M6" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="18">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1007,19 +1209,23 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:19" ht="17">
+    <row r="8" spans="1:19" ht="51">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1030,31 +1236,45 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:19" ht="17">
+    <row r="9" spans="1:19" ht="187">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="C9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:19" ht="17">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1068,34 +1288,50 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:19" ht="34">
+    <row r="11" spans="1:19" ht="51">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:19" ht="17">
+    <row r="12" spans="1:19" ht="51">
       <c r="A12" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1106,13 +1342,25 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+    <row r="13" spans="1:19" ht="136">
+      <c r="A13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1121,7 +1369,187 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
+    <row r="14" spans="1:19" ht="34">
+      <c r="A14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" ht="17">
+      <c r="A15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" ht="34">
+      <c r="A16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" ht="34">
+      <c r="A17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" ht="34">
+      <c r="A18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>